--- a/documentation/Defining and Understanding the Problem/Data dictionary.xlsx
+++ b/documentation/Defining and Understanding the Problem/Data dictionary.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Conquest Class" sheetId="1" r:id="rId1"/>
+    <sheet name="ConquestMap Class" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="163">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -454,12 +455,141 @@
   <si>
     <t>An instance of the ConquestMap class. Used to instantialise the class.</t>
   </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>public static</t>
+  </si>
+  <si>
+    <t>public final</t>
+  </si>
+  <si>
+    <t>private final</t>
+  </si>
+  <si>
+    <t>Conquest Class</t>
+  </si>
+  <si>
+    <t>ConquestMap Class</t>
+  </si>
+  <si>
+    <t>intMoveAmount</t>
+  </si>
+  <si>
+    <t>pointLocation</t>
+  </si>
+  <si>
+    <t>intUnit1_1Coords</t>
+  </si>
+  <si>
+    <t>intUnit1_2Coords</t>
+  </si>
+  <si>
+    <t>intUnit1_3Coords</t>
+  </si>
+  <si>
+    <t>intUnit2_1Coords</t>
+  </si>
+  <si>
+    <t>intUnit2_2Coords</t>
+  </si>
+  <si>
+    <t>intUnit2_3Coords</t>
+  </si>
+  <si>
+    <t>intCapturePointA</t>
+  </si>
+  <si>
+    <t>intCapturePointB</t>
+  </si>
+  <si>
+    <t>intCapturePointC</t>
+  </si>
+  <si>
+    <t>intCapturePointD</t>
+  </si>
+  <si>
+    <t>intCapturePointLocations</t>
+  </si>
+  <si>
+    <t>booleanGridOccupied</t>
+  </si>
+  <si>
+    <t>booleanGridCapturePoints</t>
+  </si>
+  <si>
+    <t>Point array</t>
+  </si>
+  <si>
+    <t>integer array</t>
+  </si>
+  <si>
+    <t>Boolean array</t>
+  </si>
+  <si>
+    <t>Pixel interval between coordinates</t>
+  </si>
+  <si>
+    <t>Screen location array. Corresponds to the coordinates.</t>
+  </si>
+  <si>
+    <t>Coordinates for player 1's 1st unit</t>
+  </si>
+  <si>
+    <t>Coordinates for player 1's 2nd unit</t>
+  </si>
+  <si>
+    <t>Coordinates for player 1's 3rd unit</t>
+  </si>
+  <si>
+    <t>Coordinates for player 2's 1st unit</t>
+  </si>
+  <si>
+    <t>Coordinates for player 2's 2nd unit</t>
+  </si>
+  <si>
+    <t>Coordinates for player 2's 3rd unit</t>
+  </si>
+  <si>
+    <t>Coordinates for capture point A</t>
+  </si>
+  <si>
+    <t>Coordinates for capture point B</t>
+  </si>
+  <si>
+    <t>Coordinates for capture point C</t>
+  </si>
+  <si>
+    <t>Coordinates for capture point D</t>
+  </si>
+  <si>
+    <t>Coordinates for all capture points</t>
+  </si>
+  <si>
+    <t>intCapturePointStatus</t>
+  </si>
+  <si>
+    <t>Stores data on who owns which capture point</t>
+  </si>
+  <si>
+    <t>Stores data on which grid locations (coordinates) are occupied</t>
+  </si>
+  <si>
+    <t>Stores data on which grid locations (coordinates) are capture points</t>
+  </si>
+  <si>
+    <t>private static final</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +613,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -504,9 +649,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,22 +936,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -837,6 +989,9 @@
       <c r="D4" t="s">
         <v>66</v>
       </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -851,6 +1006,9 @@
       <c r="D5" t="s">
         <v>67</v>
       </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -865,6 +1023,9 @@
       <c r="D6" t="s">
         <v>68</v>
       </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -879,6 +1040,9 @@
       <c r="D7" t="s">
         <v>69</v>
       </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -893,6 +1057,9 @@
       <c r="D8" t="s">
         <v>70</v>
       </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -907,6 +1074,9 @@
       <c r="D9" t="s">
         <v>71</v>
       </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -921,6 +1091,9 @@
       <c r="D10" t="s">
         <v>72</v>
       </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -935,6 +1108,9 @@
       <c r="D11" t="s">
         <v>73</v>
       </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -949,6 +1125,9 @@
       <c r="D12" t="s">
         <v>74</v>
       </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -963,6 +1142,9 @@
       <c r="D13" t="s">
         <v>75</v>
       </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -977,6 +1159,9 @@
       <c r="D14" t="s">
         <v>76</v>
       </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -991,6 +1176,9 @@
       <c r="D15" t="s">
         <v>77</v>
       </c>
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1005,8 +1193,11 @@
       <c r="D16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1019,8 +1210,11 @@
       <c r="D17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1033,8 +1227,11 @@
       <c r="D18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1042,13 +1239,16 @@
         <v>81</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1061,8 +1261,11 @@
       <c r="D20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1070,13 +1273,16 @@
         <v>81</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1084,13 +1290,16 @@
         <v>81</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1103,8 +1312,11 @@
       <c r="D23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1117,8 +1329,11 @@
       <c r="D24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1131,8 +1346,11 @@
       <c r="D25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1145,8 +1363,11 @@
       <c r="D26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1159,8 +1380,11 @@
       <c r="D27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1173,8 +1397,11 @@
       <c r="D28" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1187,8 +1414,11 @@
       <c r="D29" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1201,8 +1431,11 @@
       <c r="D30" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1215,8 +1448,11 @@
       <c r="D31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1229,8 +1465,11 @@
       <c r="D32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1243,8 +1482,11 @@
       <c r="D33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1257,8 +1499,11 @@
       <c r="D34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1271,8 +1516,11 @@
       <c r="D35" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1285,8 +1533,11 @@
       <c r="D36" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1299,8 +1550,11 @@
       <c r="D37" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1313,8 +1567,11 @@
       <c r="D38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1327,8 +1584,11 @@
       <c r="D39" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1341,8 +1601,11 @@
       <c r="D40" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1355,8 +1618,11 @@
       <c r="D41" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1369,8 +1635,11 @@
       <c r="D42" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1383,8 +1652,11 @@
       <c r="D43" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1397,8 +1669,11 @@
       <c r="D44" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1411,8 +1686,11 @@
       <c r="D45" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1425,8 +1703,11 @@
       <c r="D46" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1439,8 +1720,11 @@
       <c r="D47" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -1453,8 +1737,11 @@
       <c r="D48" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1467,8 +1754,11 @@
       <c r="D49" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1481,8 +1771,11 @@
       <c r="D50" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1495,8 +1788,11 @@
       <c r="D51" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1509,8 +1805,11 @@
       <c r="D52" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1522,10 +1821,334 @@
       </c>
       <c r="D53" t="s">
         <v>119</v>
+      </c>
+      <c r="E53" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18">
+        <v>198</v>
+      </c>
+      <c r="D18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19">
+        <v>198</v>
+      </c>
+      <c r="D19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>